--- a/Experiment #3/params.xlsx
+++ b/Experiment #3/params.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D58AA3-D2DA-4C42-9A8A-11B70045E42F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBCB73A-0167-45EF-B91B-27066EE2A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>EFL_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFL_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,19 +509,19 @@
   <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -552,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -560,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
@@ -571,7 +575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
@@ -582,7 +586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
@@ -596,7 +600,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -610,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -622,21 +626,45 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>64</v>
+      </c>
       <c r="J8" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
@@ -644,7 +672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>

--- a/Experiment #3/params.xlsx
+++ b/Experiment #3/params.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBCB73A-0167-45EF-B91B-27066EE2A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFC364-5BDD-40CD-9936-E3098E68B0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>EFL_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>EFL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,19 +513,19 @@
   <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -556,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -564,7 +568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
@@ -575,7 +579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
@@ -586,7 +590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
@@ -600,7 +604,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -664,15 +668,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>64</v>
+      </c>
       <c r="J9" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
